--- a/Umoja/UmojaTrainingCompliance/DataLake/952815_USECASE.xlsx
+++ b/Umoja/UmojaTrainingCompliance/DataLake/952815_USECASE.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="139">
   <si>
     <t>MONUSCO</t>
   </si>
@@ -402,9 +402,6 @@
     <t>LMS-1957</t>
   </si>
   <si>
-    <t>NC</t>
-  </si>
-  <si>
     <t>CR</t>
   </si>
   <si>
@@ -439,6 +436,9 @@
   </si>
   <si>
     <t>LMS-2294</t>
+  </si>
+  <si>
+    <t>NT</t>
   </si>
 </sst>
 </file>
@@ -4765,16 +4765,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>952815</v>
       </c>
@@ -4785,14 +4785,13 @@
         <v>102</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>952815</v>
       </c>
@@ -4803,27 +4802,26 @@
         <v>112</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>952815</v>
       </c>
@@ -4834,27 +4832,26 @@
         <v>103</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>952815</v>
       </c>
@@ -4865,14 +4862,13 @@
         <v>105</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>952815</v>
       </c>
@@ -4883,14 +4879,13 @@
         <v>115</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" t="s">
         <v>126</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>952815</v>
       </c>
@@ -4901,14 +4896,13 @@
         <v>98</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>952815</v>
       </c>
@@ -4919,14 +4913,13 @@
         <v>99</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>952815</v>
       </c>
@@ -4937,27 +4930,26 @@
         <v>111</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>952815</v>
       </c>
@@ -4968,14 +4960,13 @@
         <v>113</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>952815</v>
       </c>
@@ -4986,14 +4977,13 @@
         <v>104</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>952815</v>
       </c>
@@ -5004,14 +4994,13 @@
         <v>106</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>952815</v>
       </c>
@@ -5022,14 +5011,13 @@
         <v>114</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>952815</v>
       </c>
@@ -5040,14 +5028,13 @@
         <v>100</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>952815</v>
       </c>
@@ -5058,14 +5045,13 @@
         <v>101</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>952815</v>
       </c>
@@ -5076,14 +5062,13 @@
         <v>118</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>952815</v>
       </c>
@@ -5094,27 +5079,26 @@
         <v>108</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>952815</v>
       </c>
@@ -5125,14 +5109,13 @@
         <v>120</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>952815</v>
       </c>
@@ -5143,14 +5126,13 @@
         <v>116</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>952815</v>
       </c>
@@ -5161,14 +5143,13 @@
         <v>125</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>952815</v>
       </c>
@@ -5179,14 +5160,13 @@
         <v>123</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>952815</v>
       </c>
@@ -5197,14 +5177,13 @@
         <v>121</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>952815</v>
       </c>
@@ -5215,14 +5194,13 @@
         <v>122</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>952815</v>
       </c>
@@ -5233,42 +5211,53 @@
         <v>124</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>130</v>
       </c>
     </row>

--- a/Umoja/UmojaTrainingCompliance/DataLake/952815_USECASE.xlsx
+++ b/Umoja/UmojaTrainingCompliance/DataLake/952815_USECASE.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$AB$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$2:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$1:$C$27</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -4767,99 +4767,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>952815</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>952815</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>952815</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>952815</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>952815</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>952815</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>952815</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>952815</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>126</v>
@@ -4868,24 +4884,24 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>952815</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>952815</v>
       </c>
@@ -4893,7 +4909,7 @@
         <v>97</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>126</v>
@@ -4902,15 +4918,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>952815</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>126</v>
@@ -4919,45 +4935,45 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>952815</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>952815</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>952815</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>126</v>
@@ -4966,7 +4982,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>952815</v>
       </c>
@@ -4974,7 +4990,7 @@
         <v>97</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>126</v>
@@ -4983,15 +4999,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>952815</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>126</v>
@@ -5000,15 +5016,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>952815</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>126</v>
@@ -5017,7 +5033,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>952815</v>
       </c>
@@ -5025,7 +5041,7 @@
         <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>126</v>
@@ -5034,96 +5050,96 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>952815</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>952815</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>952815</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="E19" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>952815</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>952815</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>952815</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>126</v>
@@ -5132,7 +5148,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>952815</v>
       </c>
@@ -5140,16 +5156,16 @@
         <v>119</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>952815</v>
       </c>
@@ -5157,7 +5173,7 @@
         <v>119</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>126</v>
@@ -5166,7 +5182,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>952815</v>
       </c>
@@ -5174,7 +5190,7 @@
         <v>119</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>126</v>
@@ -5183,7 +5199,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>952815</v>
       </c>
@@ -5191,7 +5207,7 @@
         <v>119</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>126</v>
@@ -5200,26 +5216,20 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>952815</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>119</v>
-      </c>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>129</v>
@@ -5228,9 +5238,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>129</v>
@@ -5239,9 +5249,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>129</v>
@@ -5250,22 +5260,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A1:C52">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
